--- a/Hoàng/2025/BIDV QUẢNG NAM/DANH MỤC BIDV QUẢNG NAM - điều chỉnh.xlsx
+++ b/Hoàng/2025/BIDV QUẢNG NAM/DANH MỤC BIDV QUẢNG NAM - điều chỉnh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\BIDV QUẢNG NAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\BIDV QUẢNG NAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5744BC39-00F6-4382-A5C5-5EDB09CA205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321E433-F941-4232-97D7-D6778B3B0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TN" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="657">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -2063,21 +2063,33 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Nội soi dạ dày</t>
+  </si>
+  <si>
+    <t>STT SỔ</t>
+  </si>
+  <si>
+    <t>Nội soi dạ dày + Đại tràng</t>
+  </si>
+  <si>
+    <t>ĐĂNG KÝ NỘI SOI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2097,7 +2109,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2226,7 +2238,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2265,6 +2277,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2702,12 +2720,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3305,138 +3323,26 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3456,6 +3362,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3494,6 +3406,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3502,6 +3432,114 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3527,26 +3565,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3979,62 +4012,62 @@
       <selection activeCell="C217" sqref="C217:C220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="64.58203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.4140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="1" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="268" t="s">
+      <c r="D1" s="232" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -4042,22 +4075,22 @@
       <c r="E6" s="26"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="270" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -4070,49 +4103,49 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="276"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="277" t="s">
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="278"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="279"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="245"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="280"/>
-      <c r="B11" s="281"/>
-      <c r="C11" s="281"/>
-      <c r="D11" s="281"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="282"/>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="246"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="248"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -4120,14 +4153,14 @@
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="274" t="s">
+      <c r="B13" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="274"/>
+      <c r="C13" s="240"/>
       <c r="D13" s="33" t="s">
         <v>4</v>
       </c>
@@ -4139,81 +4172,81 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="283">
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="249">
         <v>1</v>
       </c>
-      <c r="B14" s="226" t="s">
+      <c r="B14" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="283" t="s">
+      <c r="C14" s="249" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="263">
+      <c r="E14" s="255">
         <v>200000</v>
       </c>
-      <c r="F14" s="286"/>
+      <c r="F14" s="258"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="284"/>
-      <c r="B15" s="247"/>
-      <c r="C15" s="284"/>
+    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="250"/>
+      <c r="B15" s="253"/>
+      <c r="C15" s="250"/>
       <c r="D15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="264"/>
-      <c r="F15" s="287"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="259"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="284"/>
-      <c r="B16" s="247"/>
-      <c r="C16" s="284"/>
+    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="250"/>
+      <c r="B16" s="253"/>
+      <c r="C16" s="250"/>
       <c r="D16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="264"/>
-      <c r="F16" s="287"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="259"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="284"/>
-      <c r="B17" s="247"/>
-      <c r="C17" s="284"/>
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="250"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="250"/>
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="264"/>
-      <c r="F17" s="287"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="259"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="284"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="284"/>
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="250"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="250"/>
       <c r="D18" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="E18" s="264"/>
-      <c r="F18" s="287"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="259"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="285"/>
-      <c r="B19" s="227"/>
-      <c r="C19" s="285"/>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="251"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="251"/>
       <c r="D19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="265"/>
-      <c r="F19" s="288"/>
+      <c r="E19" s="257"/>
+      <c r="F19" s="260"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>2</v>
       </c>
@@ -4232,7 +4265,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>3</v>
       </c>
@@ -4251,7 +4284,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>4</v>
       </c>
@@ -4270,7 +4303,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>5</v>
       </c>
@@ -4289,11 +4322,11 @@
       <c r="F23" s="41"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B24" s="267" t="s">
+      <c r="B24" s="231" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="42" t="s">
@@ -4302,30 +4335,30 @@
       <c r="D24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="273">
+      <c r="E24" s="237">
         <v>60000</v>
       </c>
-      <c r="F24" s="231" t="s">
+      <c r="F24" s="238" t="s">
         <v>383</v>
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>7</v>
       </c>
-      <c r="B25" s="267"/>
+      <c r="B25" s="231"/>
       <c r="C25" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="273"/>
-      <c r="F25" s="232"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="239"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>8</v>
       </c>
@@ -4344,7 +4377,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>9</v>
       </c>
@@ -4361,13 +4394,13 @@
       <c r="F27" s="41"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="271" t="s">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="275"/>
-      <c r="C28" s="275"/>
-      <c r="D28" s="272"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="236"/>
       <c r="E28" s="34">
         <f>SUM(E14:E27)</f>
         <v>564000</v>
@@ -4375,7 +4408,7 @@
       <c r="F28" s="48"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="51"/>
@@ -4384,7 +4417,7 @@
       <c r="F29" s="53"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>48</v>
       </c>
@@ -4395,7 +4428,7 @@
       <c r="F30" s="57"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="59"/>
       <c r="C31" s="60"/>
@@ -4404,14 +4437,14 @@
       <c r="F31" s="62"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="271" t="s">
+      <c r="B32" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="272"/>
+      <c r="C32" s="236"/>
       <c r="D32" s="63" t="s">
         <v>4</v>
       </c>
@@ -4423,7 +4456,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>210</v>
       </c>
@@ -4434,7 +4467,7 @@
       <c r="F33" s="70"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>1</v>
       </c>
@@ -4453,7 +4486,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>2</v>
       </c>
@@ -4472,7 +4505,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>3</v>
       </c>
@@ -4491,7 +4524,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>4</v>
       </c>
@@ -4510,11 +4543,11 @@
       <c r="F37" s="41"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>5</v>
       </c>
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="252" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="42" t="s">
@@ -4531,11 +4564,11 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>6</v>
       </c>
-      <c r="B39" s="227"/>
+      <c r="B39" s="254"/>
       <c r="C39" s="42" t="s">
         <v>275</v>
       </c>
@@ -4550,11 +4583,11 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>7</v>
       </c>
-      <c r="B40" s="240" t="s">
+      <c r="B40" s="272" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="42" t="s">
@@ -4566,16 +4599,16 @@
       <c r="E40" s="72">
         <v>41000</v>
       </c>
-      <c r="F40" s="228" t="s">
+      <c r="F40" s="269" t="s">
         <v>379</v>
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>8</v>
       </c>
-      <c r="B41" s="240"/>
+      <c r="B41" s="272"/>
       <c r="C41" s="42" t="s">
         <v>64</v>
       </c>
@@ -4585,14 +4618,14 @@
       <c r="E41" s="72">
         <v>59000</v>
       </c>
-      <c r="F41" s="229"/>
+      <c r="F41" s="270"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>9</v>
       </c>
-      <c r="B42" s="240"/>
+      <c r="B42" s="272"/>
       <c r="C42" s="42" t="s">
         <v>66</v>
       </c>
@@ -4602,14 +4635,14 @@
       <c r="E42" s="72">
         <v>59000</v>
       </c>
-      <c r="F42" s="229"/>
+      <c r="F42" s="270"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>10</v>
       </c>
-      <c r="B43" s="240"/>
+      <c r="B43" s="272"/>
       <c r="C43" s="42" t="s">
         <v>68</v>
       </c>
@@ -4619,14 +4652,14 @@
       <c r="E43" s="72">
         <v>47000</v>
       </c>
-      <c r="F43" s="229"/>
+      <c r="F43" s="270"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>11</v>
       </c>
-      <c r="B44" s="240"/>
+      <c r="B44" s="272"/>
       <c r="C44" s="42" t="s">
         <v>70</v>
       </c>
@@ -4636,10 +4669,10 @@
       <c r="E44" s="72">
         <v>41000</v>
       </c>
-      <c r="F44" s="230"/>
+      <c r="F44" s="271"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>12</v>
       </c>
@@ -4658,11 +4691,11 @@
       <c r="F45" s="41"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>13</v>
       </c>
-      <c r="B46" s="226" t="s">
+      <c r="B46" s="252" t="s">
         <v>278</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -4674,16 +4707,16 @@
       <c r="E46" s="75">
         <v>62000</v>
       </c>
-      <c r="F46" s="228" t="s">
+      <c r="F46" s="269" t="s">
         <v>380</v>
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>14</v>
       </c>
-      <c r="B47" s="247"/>
+      <c r="B47" s="253"/>
       <c r="C47" s="36" t="s">
         <v>197</v>
       </c>
@@ -4693,14 +4726,14 @@
       <c r="E47" s="75">
         <v>165000</v>
       </c>
-      <c r="F47" s="229"/>
+      <c r="F47" s="270"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>15</v>
       </c>
-      <c r="B48" s="227"/>
+      <c r="B48" s="254"/>
       <c r="C48" s="36" t="s">
         <v>202</v>
       </c>
@@ -4710,14 +4743,14 @@
       <c r="E48" s="75">
         <v>116000</v>
       </c>
-      <c r="F48" s="230"/>
+      <c r="F48" s="271"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>16</v>
       </c>
-      <c r="B49" s="226" t="s">
+      <c r="B49" s="252" t="s">
         <v>273</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -4732,11 +4765,11 @@
       <c r="F49" s="41"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>17</v>
       </c>
-      <c r="B50" s="247"/>
+      <c r="B50" s="253"/>
       <c r="C50" s="36" t="s">
         <v>270</v>
       </c>
@@ -4746,16 +4779,16 @@
       <c r="E50" s="75">
         <v>130000</v>
       </c>
-      <c r="F50" s="228" t="s">
+      <c r="F50" s="269" t="s">
         <v>380</v>
       </c>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>18</v>
       </c>
-      <c r="B51" s="247"/>
+      <c r="B51" s="253"/>
       <c r="C51" s="36" t="s">
         <v>271</v>
       </c>
@@ -4765,14 +4798,14 @@
       <c r="E51" s="75">
         <v>120000</v>
       </c>
-      <c r="F51" s="229"/>
+      <c r="F51" s="270"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>19</v>
       </c>
-      <c r="B52" s="227"/>
+      <c r="B52" s="254"/>
       <c r="C52" s="36" t="s">
         <v>272</v>
       </c>
@@ -4782,10 +4815,10 @@
       <c r="E52" s="75">
         <v>282000</v>
       </c>
-      <c r="F52" s="230"/>
+      <c r="F52" s="271"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>20</v>
       </c>
@@ -4804,11 +4837,11 @@
       <c r="F53" s="41"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>21</v>
       </c>
-      <c r="B54" s="242" t="s">
+      <c r="B54" s="275" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -4820,16 +4853,16 @@
       <c r="E54" s="75">
         <v>71000</v>
       </c>
-      <c r="F54" s="231" t="s">
+      <c r="F54" s="238" t="s">
         <v>382</v>
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>22</v>
       </c>
-      <c r="B55" s="243"/>
+      <c r="B55" s="277"/>
       <c r="C55" s="36" t="s">
         <v>134</v>
       </c>
@@ -4839,10 +4872,10 @@
       <c r="E55" s="71">
         <v>138000</v>
       </c>
-      <c r="F55" s="232"/>
+      <c r="F55" s="239"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>23</v>
       </c>
@@ -4861,11 +4894,11 @@
       <c r="F56" s="122"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>24</v>
       </c>
-      <c r="B57" s="241" t="s">
+      <c r="B57" s="293" t="s">
         <v>206</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -4877,16 +4910,16 @@
       <c r="E57" s="75">
         <v>30000</v>
       </c>
-      <c r="F57" s="233" t="s">
+      <c r="F57" s="286" t="s">
         <v>384</v>
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>25</v>
       </c>
-      <c r="B58" s="241"/>
+      <c r="B58" s="293"/>
       <c r="C58" s="36" t="s">
         <v>279</v>
       </c>
@@ -4896,25 +4929,25 @@
       <c r="E58" s="75">
         <v>20000</v>
       </c>
-      <c r="F58" s="234"/>
+      <c r="F58" s="287"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="223" t="s">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="265" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="224"/>
-      <c r="C59" s="224"/>
-      <c r="D59" s="225"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="267"/>
       <c r="E59" s="69"/>
       <c r="F59" s="70"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>26</v>
       </c>
-      <c r="B60" s="235" t="s">
+      <c r="B60" s="288" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="76" t="s">
@@ -4929,11 +4962,11 @@
       <c r="F60" s="41"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>27</v>
       </c>
-      <c r="B61" s="236"/>
+      <c r="B61" s="289"/>
       <c r="C61" s="76" t="s">
         <v>84</v>
       </c>
@@ -4946,11 +4979,11 @@
       <c r="F61" s="41"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>28</v>
       </c>
-      <c r="B62" s="236"/>
+      <c r="B62" s="289"/>
       <c r="C62" s="76" t="s">
         <v>86</v>
       </c>
@@ -4963,11 +4996,11 @@
       <c r="F62" s="41"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>29</v>
       </c>
-      <c r="B63" s="236"/>
+      <c r="B63" s="289"/>
       <c r="C63" s="76" t="s">
         <v>80</v>
       </c>
@@ -4980,11 +5013,11 @@
       <c r="F63" s="41"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>30</v>
       </c>
-      <c r="B64" s="236"/>
+      <c r="B64" s="289"/>
       <c r="C64" s="76" t="s">
         <v>94</v>
       </c>
@@ -4997,11 +5030,11 @@
       <c r="F64" s="41"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>31</v>
       </c>
-      <c r="B65" s="236"/>
+      <c r="B65" s="289"/>
       <c r="C65" s="76" t="s">
         <v>81</v>
       </c>
@@ -5014,11 +5047,11 @@
       <c r="F65" s="41"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>32</v>
       </c>
-      <c r="B66" s="236"/>
+      <c r="B66" s="289"/>
       <c r="C66" s="76" t="s">
         <v>83</v>
       </c>
@@ -5033,11 +5066,11 @@
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>33</v>
       </c>
-      <c r="B67" s="236"/>
+      <c r="B67" s="289"/>
       <c r="C67" s="80" t="s">
         <v>235</v>
       </c>
@@ -5050,11 +5083,11 @@
       <c r="F67" s="41"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>34</v>
       </c>
-      <c r="B68" s="236"/>
+      <c r="B68" s="289"/>
       <c r="C68" s="76" t="s">
         <v>74</v>
       </c>
@@ -5069,11 +5102,11 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>35</v>
       </c>
-      <c r="B69" s="236"/>
+      <c r="B69" s="289"/>
       <c r="C69" s="76" t="s">
         <v>76</v>
       </c>
@@ -5086,11 +5119,11 @@
       <c r="F69" s="41"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>36</v>
       </c>
-      <c r="B70" s="236"/>
+      <c r="B70" s="289"/>
       <c r="C70" s="76" t="s">
         <v>78</v>
       </c>
@@ -5103,11 +5136,11 @@
       <c r="F70" s="41"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>37</v>
       </c>
-      <c r="B71" s="236"/>
+      <c r="B71" s="289"/>
       <c r="C71" s="76" t="s">
         <v>88</v>
       </c>
@@ -5120,11 +5153,11 @@
       <c r="F71" s="41"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>38</v>
       </c>
-      <c r="B72" s="237"/>
+      <c r="B72" s="290"/>
       <c r="C72" s="76" t="s">
         <v>96</v>
       </c>
@@ -5137,68 +5170,68 @@
       <c r="F72" s="41"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>39</v>
       </c>
-      <c r="B73" s="235" t="s">
+      <c r="B73" s="288" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="244" t="s">
+      <c r="D73" s="294" t="s">
         <v>398</v>
       </c>
       <c r="E73" s="78">
         <v>137000</v>
       </c>
-      <c r="F73" s="228" t="s">
+      <c r="F73" s="269" t="s">
         <v>381</v>
       </c>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>40</v>
       </c>
-      <c r="B74" s="236"/>
+      <c r="B74" s="289"/>
       <c r="C74" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="245"/>
+      <c r="D74" s="295"/>
       <c r="E74" s="78">
         <v>137000</v>
       </c>
-      <c r="F74" s="229"/>
+      <c r="F74" s="270"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>41</v>
       </c>
-      <c r="B75" s="237"/>
+      <c r="B75" s="290"/>
       <c r="C75" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="246"/>
+      <c r="D75" s="296"/>
       <c r="E75" s="78">
         <v>208000</v>
       </c>
-      <c r="F75" s="230"/>
+      <c r="F75" s="271"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>42</v>
       </c>
-      <c r="B76" s="235" t="s">
+      <c r="B76" s="288" t="s">
         <v>399</v>
       </c>
       <c r="C76" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="238" t="s">
+      <c r="D76" s="291" t="s">
         <v>402</v>
       </c>
       <c r="E76" s="78">
@@ -5207,26 +5240,26 @@
       <c r="F76" s="114"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>43</v>
       </c>
-      <c r="B77" s="236"/>
+      <c r="B77" s="289"/>
       <c r="C77" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="D77" s="239"/>
+      <c r="D77" s="292"/>
       <c r="E77" s="78">
         <v>323000</v>
       </c>
       <c r="F77" s="114"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="14" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44</v>
       </c>
-      <c r="B78" s="236"/>
+      <c r="B78" s="289"/>
       <c r="C78" s="76" t="s">
         <v>404</v>
       </c>
@@ -5239,11 +5272,11 @@
       <c r="F78" s="114"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="14" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>45</v>
       </c>
-      <c r="B79" s="237"/>
+      <c r="B79" s="290"/>
       <c r="C79" s="76" t="s">
         <v>405</v>
       </c>
@@ -5256,22 +5289,22 @@
       <c r="F79" s="114"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="223" t="s">
+    <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="265" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="224"/>
-      <c r="C80" s="224"/>
-      <c r="D80" s="225"/>
+      <c r="B80" s="266"/>
+      <c r="C80" s="266"/>
+      <c r="D80" s="267"/>
       <c r="E80" s="69"/>
       <c r="F80" s="70"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>46</v>
       </c>
-      <c r="B81" s="240" t="s">
+      <c r="B81" s="272" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -5286,11 +5319,11 @@
       <c r="F81" s="41"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>47</v>
       </c>
-      <c r="B82" s="240"/>
+      <c r="B82" s="272"/>
       <c r="C82" s="36" t="s">
         <v>101</v>
       </c>
@@ -5303,11 +5336,11 @@
       <c r="F82" s="41"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" ht="99" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>48</v>
       </c>
-      <c r="B83" s="240"/>
+      <c r="B83" s="272"/>
       <c r="C83" s="36" t="s">
         <v>103</v>
       </c>
@@ -5322,11 +5355,11 @@
       </c>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="99" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>49</v>
       </c>
-      <c r="B84" s="240"/>
+      <c r="B84" s="272"/>
       <c r="C84" s="36" t="s">
         <v>106</v>
       </c>
@@ -5341,11 +5374,11 @@
       </c>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" ht="132" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>50</v>
       </c>
-      <c r="B85" s="240"/>
+      <c r="B85" s="272"/>
       <c r="C85" s="36" t="s">
         <v>407</v>
       </c>
@@ -5358,11 +5391,11 @@
       <c r="F85" s="41"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>51</v>
       </c>
-      <c r="B86" s="240"/>
+      <c r="B86" s="272"/>
       <c r="C86" s="36" t="s">
         <v>108</v>
       </c>
@@ -5377,11 +5410,11 @@
       </c>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>52</v>
       </c>
-      <c r="B87" s="240"/>
+      <c r="B87" s="272"/>
       <c r="C87" s="36" t="s">
         <v>111</v>
       </c>
@@ -5396,11 +5429,11 @@
       </c>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>53</v>
       </c>
-      <c r="B88" s="240"/>
+      <c r="B88" s="272"/>
       <c r="C88" s="36" t="s">
         <v>114</v>
       </c>
@@ -5415,11 +5448,11 @@
       </c>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>54</v>
       </c>
-      <c r="B89" s="240" t="s">
+      <c r="B89" s="272" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="36" t="s">
@@ -5434,11 +5467,11 @@
       <c r="F89" s="41"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>55</v>
       </c>
-      <c r="B90" s="240"/>
+      <c r="B90" s="272"/>
       <c r="C90" s="36" t="s">
         <v>120</v>
       </c>
@@ -5451,11 +5484,11 @@
       <c r="F90" s="41"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
         <v>56</v>
       </c>
-      <c r="B91" s="242" t="s">
+      <c r="B91" s="275" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -5470,11 +5503,11 @@
       <c r="F91" s="41"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>57</v>
       </c>
-      <c r="B92" s="250"/>
+      <c r="B92" s="276"/>
       <c r="C92" s="36" t="s">
         <v>390</v>
       </c>
@@ -5487,11 +5520,11 @@
       <c r="F92" s="41"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>58</v>
       </c>
-      <c r="B93" s="243"/>
+      <c r="B93" s="277"/>
       <c r="C93" s="36" t="s">
         <v>126</v>
       </c>
@@ -5504,22 +5537,22 @@
       <c r="F93" s="41"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="223" t="s">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="265" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="224"/>
-      <c r="C94" s="224"/>
-      <c r="D94" s="225"/>
+      <c r="B94" s="266"/>
+      <c r="C94" s="266"/>
+      <c r="D94" s="267"/>
       <c r="E94" s="83"/>
       <c r="F94" s="70"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>59</v>
       </c>
-      <c r="B95" s="242" t="s">
+      <c r="B95" s="275" t="s">
         <v>241</v>
       </c>
       <c r="C95" s="36" t="s">
@@ -5534,11 +5567,11 @@
       <c r="F95" s="41"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
         <v>60</v>
       </c>
-      <c r="B96" s="243"/>
+      <c r="B96" s="277"/>
       <c r="C96" s="36" t="s">
         <v>240</v>
       </c>
@@ -5551,11 +5584,11 @@
       <c r="F96" s="41"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>61</v>
       </c>
-      <c r="B97" s="242" t="s">
+      <c r="B97" s="275" t="s">
         <v>244</v>
       </c>
       <c r="C97" s="36" t="s">
@@ -5568,11 +5601,11 @@
       <c r="F97" s="41"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>62</v>
       </c>
-      <c r="B98" s="243"/>
+      <c r="B98" s="277"/>
       <c r="C98" s="36" t="s">
         <v>243</v>
       </c>
@@ -5583,7 +5616,7 @@
       <c r="F98" s="41"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <v>63</v>
       </c>
@@ -5602,11 +5635,11 @@
       </c>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>64</v>
       </c>
-      <c r="B100" s="242" t="s">
+      <c r="B100" s="275" t="s">
         <v>259</v>
       </c>
       <c r="C100" s="36" t="s">
@@ -5619,11 +5652,11 @@
       <c r="F100" s="41"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
         <v>65</v>
       </c>
-      <c r="B101" s="250"/>
+      <c r="B101" s="276"/>
       <c r="C101" s="36" t="s">
         <v>246</v>
       </c>
@@ -5634,11 +5667,11 @@
       <c r="F101" s="41"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
         <v>66</v>
       </c>
-      <c r="B102" s="250"/>
+      <c r="B102" s="276"/>
       <c r="C102" s="36" t="s">
         <v>247</v>
       </c>
@@ -5649,11 +5682,11 @@
       <c r="F102" s="41"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
         <v>67</v>
       </c>
-      <c r="B103" s="250"/>
+      <c r="B103" s="276"/>
       <c r="C103" s="36" t="s">
         <v>248</v>
       </c>
@@ -5664,11 +5697,11 @@
       <c r="F103" s="41"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>68</v>
       </c>
-      <c r="B104" s="250"/>
+      <c r="B104" s="276"/>
       <c r="C104" s="36" t="s">
         <v>249</v>
       </c>
@@ -5679,11 +5712,11 @@
       <c r="F104" s="41"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
         <v>69</v>
       </c>
-      <c r="B105" s="250"/>
+      <c r="B105" s="276"/>
       <c r="C105" s="36" t="s">
         <v>250</v>
       </c>
@@ -5694,11 +5727,11 @@
       <c r="F105" s="41"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
         <v>70</v>
       </c>
-      <c r="B106" s="250"/>
+      <c r="B106" s="276"/>
       <c r="C106" s="36" t="s">
         <v>251</v>
       </c>
@@ -5709,11 +5742,11 @@
       <c r="F106" s="41"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>71</v>
       </c>
-      <c r="B107" s="250"/>
+      <c r="B107" s="276"/>
       <c r="C107" s="36" t="s">
         <v>252</v>
       </c>
@@ -5724,11 +5757,11 @@
       <c r="F107" s="41"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
         <v>72</v>
       </c>
-      <c r="B108" s="250"/>
+      <c r="B108" s="276"/>
       <c r="C108" s="36" t="s">
         <v>253</v>
       </c>
@@ -5739,11 +5772,11 @@
       <c r="F108" s="41"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>73</v>
       </c>
-      <c r="B109" s="250"/>
+      <c r="B109" s="276"/>
       <c r="C109" s="36" t="s">
         <v>254</v>
       </c>
@@ -5754,11 +5787,11 @@
       <c r="F109" s="41"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>74</v>
       </c>
-      <c r="B110" s="250"/>
+      <c r="B110" s="276"/>
       <c r="C110" s="36" t="s">
         <v>255</v>
       </c>
@@ -5769,11 +5802,11 @@
       <c r="F110" s="41"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <v>75</v>
       </c>
-      <c r="B111" s="250"/>
+      <c r="B111" s="276"/>
       <c r="C111" s="36" t="s">
         <v>256</v>
       </c>
@@ -5784,11 +5817,11 @@
       <c r="F111" s="41"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
         <v>76</v>
       </c>
-      <c r="B112" s="250"/>
+      <c r="B112" s="276"/>
       <c r="C112" s="36" t="s">
         <v>257</v>
       </c>
@@ -5799,11 +5832,11 @@
       <c r="F112" s="41"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>77</v>
       </c>
-      <c r="B113" s="243"/>
+      <c r="B113" s="277"/>
       <c r="C113" s="36" t="s">
         <v>258</v>
       </c>
@@ -5814,18 +5847,18 @@
       <c r="F113" s="41"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="223" t="s">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="224"/>
-      <c r="C114" s="224"/>
-      <c r="D114" s="225"/>
+      <c r="B114" s="266"/>
+      <c r="C114" s="266"/>
+      <c r="D114" s="267"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>78</v>
       </c>
@@ -5844,7 +5877,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>79</v>
       </c>
@@ -5863,22 +5896,22 @@
       <c r="F116" s="41"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="251" t="s">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="262" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="251"/>
-      <c r="C117" s="251"/>
-      <c r="D117" s="251"/>
+      <c r="B117" s="262"/>
+      <c r="C117" s="262"/>
+      <c r="D117" s="262"/>
       <c r="E117" s="84"/>
       <c r="F117" s="70"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>80</v>
       </c>
-      <c r="B118" s="257" t="s">
+      <c r="B118" s="283" t="s">
         <v>205</v>
       </c>
       <c r="C118" s="37" t="s">
@@ -5893,11 +5926,11 @@
       <c r="F118" s="41"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>81</v>
       </c>
-      <c r="B119" s="258"/>
+      <c r="B119" s="284"/>
       <c r="C119" s="37" t="s">
         <v>35</v>
       </c>
@@ -5910,11 +5943,11 @@
       <c r="F119" s="41"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>82</v>
       </c>
-      <c r="B120" s="258"/>
+      <c r="B120" s="284"/>
       <c r="C120" s="37" t="s">
         <v>326</v>
       </c>
@@ -5927,11 +5960,11 @@
       <c r="F120" s="41"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.35">
-      <c r="A121" s="252">
+    <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A121" s="278">
         <v>83</v>
       </c>
-      <c r="B121" s="258"/>
+      <c r="B121" s="284"/>
       <c r="C121" s="36" t="s">
         <v>409</v>
       </c>
@@ -5942,9 +5975,9 @@
       <c r="F121" s="41"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="253"/>
-      <c r="B122" s="258"/>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="279"/>
+      <c r="B122" s="284"/>
       <c r="C122" s="36" t="s">
         <v>410</v>
       </c>
@@ -5955,9 +5988,9 @@
       <c r="F122" s="41"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="254"/>
-      <c r="B123" s="258"/>
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="280"/>
+      <c r="B123" s="284"/>
       <c r="C123" s="36" t="s">
         <v>411</v>
       </c>
@@ -5968,11 +6001,11 @@
       <c r="F123" s="41"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
         <v>84</v>
       </c>
-      <c r="B124" s="258"/>
+      <c r="B124" s="284"/>
       <c r="C124" s="37" t="s">
         <v>412</v>
       </c>
@@ -5985,11 +6018,11 @@
       <c r="F124" s="41"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>85</v>
       </c>
-      <c r="B125" s="258"/>
+      <c r="B125" s="284"/>
       <c r="C125" s="37" t="s">
         <v>139</v>
       </c>
@@ -6002,11 +6035,11 @@
       <c r="F125" s="41"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>86</v>
       </c>
-      <c r="B126" s="259"/>
+      <c r="B126" s="285"/>
       <c r="C126" s="37" t="s">
         <v>140</v>
       </c>
@@ -6019,11 +6052,11 @@
       <c r="F126" s="41"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>87</v>
       </c>
-      <c r="B127" s="226" t="s">
+      <c r="B127" s="252" t="s">
         <v>283</v>
       </c>
       <c r="C127" s="36" t="s">
@@ -6038,11 +6071,11 @@
       <c r="F127" s="41"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>88</v>
       </c>
-      <c r="B128" s="247"/>
+      <c r="B128" s="253"/>
       <c r="C128" s="36" t="s">
         <v>144</v>
       </c>
@@ -6055,11 +6088,11 @@
       <c r="F128" s="41"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>89</v>
       </c>
-      <c r="B129" s="247"/>
+      <c r="B129" s="253"/>
       <c r="C129" s="36" t="s">
         <v>394</v>
       </c>
@@ -6072,11 +6105,11 @@
       <c r="F129" s="41"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
         <v>90</v>
       </c>
-      <c r="B130" s="247"/>
+      <c r="B130" s="253"/>
       <c r="C130" s="36" t="s">
         <v>396</v>
       </c>
@@ -6089,11 +6122,11 @@
       <c r="F130" s="41"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>91</v>
       </c>
-      <c r="B131" s="247"/>
+      <c r="B131" s="253"/>
       <c r="C131" s="36" t="s">
         <v>371</v>
       </c>
@@ -6106,11 +6139,11 @@
       <c r="F131" s="120"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
         <v>92</v>
       </c>
-      <c r="B132" s="227"/>
+      <c r="B132" s="254"/>
       <c r="C132" s="36" t="s">
         <v>146</v>
       </c>
@@ -6121,11 +6154,11 @@
       <c r="F132" s="41"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
         <v>93</v>
       </c>
-      <c r="B133" s="247" t="s">
+      <c r="B133" s="253" t="s">
         <v>284</v>
       </c>
       <c r="C133" s="36" t="s">
@@ -6138,11 +6171,11 @@
       <c r="F133" s="41"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>94</v>
       </c>
-      <c r="B134" s="247"/>
+      <c r="B134" s="253"/>
       <c r="C134" s="36" t="s">
         <v>332</v>
       </c>
@@ -6155,11 +6188,11 @@
       <c r="F134" s="41"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="38">
         <v>95</v>
       </c>
-      <c r="B135" s="247"/>
+      <c r="B135" s="253"/>
       <c r="C135" s="36" t="s">
         <v>152</v>
       </c>
@@ -6172,11 +6205,11 @@
       <c r="F135" s="41"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <v>96</v>
       </c>
-      <c r="B136" s="247"/>
+      <c r="B136" s="253"/>
       <c r="C136" s="36" t="s">
         <v>154</v>
       </c>
@@ -6189,11 +6222,11 @@
       <c r="F136" s="41"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>97</v>
       </c>
-      <c r="B137" s="247"/>
+      <c r="B137" s="253"/>
       <c r="C137" s="36" t="s">
         <v>156</v>
       </c>
@@ -6206,11 +6239,11 @@
       <c r="F137" s="41"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
         <v>98</v>
       </c>
-      <c r="B138" s="247"/>
+      <c r="B138" s="253"/>
       <c r="C138" s="36" t="s">
         <v>158</v>
       </c>
@@ -6223,11 +6256,11 @@
       <c r="F138" s="41"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>99</v>
       </c>
-      <c r="B139" s="247"/>
+      <c r="B139" s="253"/>
       <c r="C139" s="36" t="s">
         <v>159</v>
       </c>
@@ -6238,11 +6271,11 @@
       <c r="F139" s="41"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <v>100</v>
       </c>
-      <c r="B140" s="267" t="s">
+      <c r="B140" s="231" t="s">
         <v>305</v>
       </c>
       <c r="C140" s="36" t="s">
@@ -6255,16 +6288,16 @@
         <v>3420000</v>
       </c>
       <c r="F140" s="41"/>
-      <c r="G140" s="248" t="s">
+      <c r="G140" s="273" t="s">
         <v>336</v>
       </c>
-      <c r="H140" s="249"/>
-    </row>
-    <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="H140" s="274"/>
+    </row>
+    <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>101</v>
       </c>
-      <c r="B141" s="267"/>
+      <c r="B141" s="231"/>
       <c r="C141" s="36" t="s">
         <v>344</v>
       </c>
@@ -6277,11 +6310,11 @@
       <c r="F141" s="41"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>102</v>
       </c>
-      <c r="B142" s="267"/>
+      <c r="B142" s="231"/>
       <c r="C142" s="36" t="s">
         <v>345</v>
       </c>
@@ -6292,16 +6325,16 @@
         <v>3420000</v>
       </c>
       <c r="F142" s="41"/>
-      <c r="G142" s="248" t="s">
+      <c r="G142" s="273" t="s">
         <v>336</v>
       </c>
-      <c r="H142" s="249"/>
-    </row>
-    <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="H142" s="274"/>
+    </row>
+    <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>103</v>
       </c>
-      <c r="B143" s="267"/>
+      <c r="B143" s="231"/>
       <c r="C143" s="36" t="s">
         <v>346</v>
       </c>
@@ -6314,11 +6347,11 @@
       <c r="F143" s="41"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
         <v>104</v>
       </c>
-      <c r="B144" s="267"/>
+      <c r="B144" s="231"/>
       <c r="C144" s="36" t="s">
         <v>347</v>
       </c>
@@ -6331,11 +6364,11 @@
       <c r="F144" s="41"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
         <v>105</v>
       </c>
-      <c r="B145" s="267"/>
+      <c r="B145" s="231"/>
       <c r="C145" s="118" t="s">
         <v>374</v>
       </c>
@@ -6348,11 +6381,11 @@
       <c r="F145" s="41"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
         <v>106</v>
       </c>
-      <c r="B146" s="267"/>
+      <c r="B146" s="231"/>
       <c r="C146" s="36" t="s">
         <v>348</v>
       </c>
@@ -6365,11 +6398,11 @@
       <c r="F146" s="41"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <v>107</v>
       </c>
-      <c r="B147" s="267"/>
+      <c r="B147" s="231"/>
       <c r="C147" s="36" t="s">
         <v>349</v>
       </c>
@@ -6382,11 +6415,11 @@
       <c r="F147" s="41"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <v>108</v>
       </c>
-      <c r="B148" s="267"/>
+      <c r="B148" s="231"/>
       <c r="C148" s="36" t="s">
         <v>350</v>
       </c>
@@ -6399,11 +6432,11 @@
       <c r="F148" s="41"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
         <v>109</v>
       </c>
-      <c r="B149" s="267"/>
+      <c r="B149" s="231"/>
       <c r="C149" s="118" t="s">
         <v>373</v>
       </c>
@@ -6416,11 +6449,11 @@
       <c r="F149" s="41"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>110</v>
       </c>
-      <c r="B150" s="267"/>
+      <c r="B150" s="231"/>
       <c r="C150" s="36" t="s">
         <v>351</v>
       </c>
@@ -6435,11 +6468,11 @@
       </c>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
         <v>111</v>
       </c>
-      <c r="B151" s="267"/>
+      <c r="B151" s="231"/>
       <c r="C151" s="36" t="s">
         <v>352</v>
       </c>
@@ -6452,11 +6485,11 @@
       <c r="F151" s="41"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
         <v>112</v>
       </c>
-      <c r="B152" s="267"/>
+      <c r="B152" s="231"/>
       <c r="C152" s="36" t="s">
         <v>353</v>
       </c>
@@ -6469,11 +6502,11 @@
       <c r="F152" s="41"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>113</v>
       </c>
-      <c r="B153" s="267"/>
+      <c r="B153" s="231"/>
       <c r="C153" s="36" t="s">
         <v>354</v>
       </c>
@@ -6486,11 +6519,11 @@
       <c r="F153" s="41"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
         <v>114</v>
       </c>
-      <c r="B154" s="267"/>
+      <c r="B154" s="231"/>
       <c r="C154" s="36" t="s">
         <v>355</v>
       </c>
@@ -6503,11 +6536,11 @@
       <c r="F154" s="41"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
         <v>115</v>
       </c>
-      <c r="B155" s="267"/>
+      <c r="B155" s="231"/>
       <c r="C155" s="36" t="s">
         <v>356</v>
       </c>
@@ -6520,11 +6553,11 @@
       <c r="F155" s="41"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>116</v>
       </c>
-      <c r="B156" s="267"/>
+      <c r="B156" s="231"/>
       <c r="C156" s="36" t="s">
         <v>357</v>
       </c>
@@ -6537,11 +6570,11 @@
       <c r="F156" s="41"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
         <v>117</v>
       </c>
-      <c r="B157" s="267"/>
+      <c r="B157" s="231"/>
       <c r="C157" s="36" t="s">
         <v>358</v>
       </c>
@@ -6554,11 +6587,11 @@
       <c r="F157" s="41"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <v>118</v>
       </c>
-      <c r="B158" s="267"/>
+      <c r="B158" s="231"/>
       <c r="C158" s="36" t="s">
         <v>359</v>
       </c>
@@ -6571,11 +6604,11 @@
       <c r="F158" s="41"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
         <v>119</v>
       </c>
-      <c r="B159" s="267"/>
+      <c r="B159" s="231"/>
       <c r="C159" s="36" t="s">
         <v>360</v>
       </c>
@@ -6588,11 +6621,11 @@
       <c r="F159" s="41"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <v>120</v>
       </c>
-      <c r="B160" s="267"/>
+      <c r="B160" s="231"/>
       <c r="C160" s="36" t="s">
         <v>361</v>
       </c>
@@ -6605,11 +6638,11 @@
       <c r="F160" s="41"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>121</v>
       </c>
-      <c r="B161" s="267"/>
+      <c r="B161" s="231"/>
       <c r="C161" s="36" t="s">
         <v>362</v>
       </c>
@@ -6622,11 +6655,11 @@
       <c r="F161" s="41"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <v>122</v>
       </c>
-      <c r="B162" s="267"/>
+      <c r="B162" s="231"/>
       <c r="C162" s="36" t="s">
         <v>363</v>
       </c>
@@ -6639,11 +6672,11 @@
       <c r="F162" s="41"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>123</v>
       </c>
-      <c r="B163" s="267"/>
+      <c r="B163" s="231"/>
       <c r="C163" s="36" t="s">
         <v>364</v>
       </c>
@@ -6656,11 +6689,11 @@
       <c r="F163" s="41"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>124</v>
       </c>
-      <c r="B164" s="267"/>
+      <c r="B164" s="231"/>
       <c r="C164" s="36" t="s">
         <v>365</v>
       </c>
@@ -6671,11 +6704,11 @@
       <c r="F164" s="41"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>125</v>
       </c>
-      <c r="B165" s="267"/>
+      <c r="B165" s="231"/>
       <c r="C165" s="36" t="s">
         <v>366</v>
       </c>
@@ -6686,11 +6719,11 @@
       <c r="F165" s="41"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
         <v>126</v>
       </c>
-      <c r="B166" s="267"/>
+      <c r="B166" s="231"/>
       <c r="C166" s="36" t="s">
         <v>367</v>
       </c>
@@ -6703,11 +6736,11 @@
       <c r="F166" s="41"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>127</v>
       </c>
-      <c r="B167" s="267"/>
+      <c r="B167" s="231"/>
       <c r="C167" s="36" t="s">
         <v>368</v>
       </c>
@@ -6720,11 +6753,11 @@
       <c r="F167" s="41"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
         <v>128</v>
       </c>
-      <c r="B168" s="267"/>
+      <c r="B168" s="231"/>
       <c r="C168" s="36" t="s">
         <v>369</v>
       </c>
@@ -6737,11 +6770,11 @@
       <c r="F168" s="41"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <v>129</v>
       </c>
-      <c r="B169" s="267"/>
+      <c r="B169" s="231"/>
       <c r="C169" s="36" t="s">
         <v>370</v>
       </c>
@@ -6754,18 +6787,18 @@
       <c r="F169" s="41"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="251" t="s">
+    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="262" t="s">
         <v>207</v>
       </c>
-      <c r="B170" s="251"/>
-      <c r="C170" s="251"/>
-      <c r="D170" s="251"/>
+      <c r="B170" s="262"/>
+      <c r="C170" s="262"/>
+      <c r="D170" s="262"/>
       <c r="E170" s="84"/>
       <c r="F170" s="70"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>130</v>
       </c>
@@ -6782,7 +6815,7 @@
       <c r="F171" s="41"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <v>131</v>
       </c>
@@ -6799,7 +6832,7 @@
       <c r="F172" s="41"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
         <v>132</v>
       </c>
@@ -6817,11 +6850,11 @@
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
     </row>
-    <row r="174" spans="1:8" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>133</v>
       </c>
-      <c r="B174" s="226" t="s">
+      <c r="B174" s="252" t="s">
         <v>204</v>
       </c>
       <c r="C174" s="36" t="s">
@@ -6835,11 +6868,11 @@
       </c>
       <c r="F174" s="41"/>
     </row>
-    <row r="175" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>134</v>
       </c>
-      <c r="B175" s="227"/>
+      <c r="B175" s="254"/>
       <c r="C175" s="36" t="s">
         <v>225</v>
       </c>
@@ -6851,17 +6884,17 @@
       </c>
       <c r="F175" s="41"/>
     </row>
-    <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A176" s="223" t="s">
+    <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="B176" s="224"/>
-      <c r="C176" s="224"/>
-      <c r="D176" s="225"/>
+      <c r="B176" s="266"/>
+      <c r="C176" s="266"/>
+      <c r="D176" s="267"/>
       <c r="E176" s="65"/>
       <c r="F176" s="65"/>
     </row>
-    <row r="177" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A177" s="90">
         <v>135</v>
       </c>
@@ -6875,11 +6908,11 @@
       <c r="E177" s="90">
         <v>71000</v>
       </c>
-      <c r="F177" s="255" t="s">
+      <c r="F177" s="281" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A178" s="90">
         <v>136</v>
       </c>
@@ -6893,20 +6926,20 @@
       <c r="E178" s="90">
         <v>86000</v>
       </c>
-      <c r="F178" s="256"/>
-    </row>
-    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="251" t="s">
+      <c r="F178" s="282"/>
+    </row>
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="262" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="251"/>
-      <c r="C179" s="251"/>
-      <c r="D179" s="251"/>
+      <c r="B179" s="262"/>
+      <c r="C179" s="262"/>
+      <c r="D179" s="262"/>
       <c r="E179" s="84"/>
       <c r="F179" s="70"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A180" s="93">
         <v>137</v>
       </c>
@@ -6920,12 +6953,12 @@
       <c r="E180" s="116">
         <v>1968000</v>
       </c>
-      <c r="F180" s="261" t="s">
+      <c r="F180" s="263" t="s">
         <v>327</v>
       </c>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A181" s="93">
         <v>138</v>
       </c>
@@ -6939,10 +6972,10 @@
       <c r="E181" s="116">
         <v>2952000</v>
       </c>
-      <c r="F181" s="261"/>
+      <c r="F181" s="263"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A182" s="93">
         <v>139</v>
       </c>
@@ -6956,10 +6989,10 @@
       <c r="E182" s="116">
         <v>4100000</v>
       </c>
-      <c r="F182" s="261"/>
+      <c r="F182" s="263"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A183" s="93">
         <v>140</v>
       </c>
@@ -6976,7 +7009,7 @@
       <c r="F183" s="114"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" ht="132" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A184" s="93">
         <v>141</v>
       </c>
@@ -6995,7 +7028,7 @@
       </c>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="93">
         <v>142</v>
       </c>
@@ -7012,7 +7045,7 @@
       <c r="F185" s="41"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="93">
         <v>143</v>
       </c>
@@ -7029,7 +7062,7 @@
       <c r="F186" s="41"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="93">
         <v>144</v>
       </c>
@@ -7046,18 +7079,18 @@
       <c r="F187" s="41"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="251" t="s">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="262" t="s">
         <v>264</v>
       </c>
-      <c r="B188" s="251"/>
-      <c r="C188" s="251"/>
-      <c r="D188" s="251"/>
+      <c r="B188" s="262"/>
+      <c r="C188" s="262"/>
+      <c r="D188" s="262"/>
       <c r="E188" s="84"/>
       <c r="F188" s="70"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A189" s="93">
         <v>145</v>
       </c>
@@ -7074,18 +7107,18 @@
       <c r="F189" s="41"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="251" t="s">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="B190" s="251"/>
-      <c r="C190" s="251"/>
-      <c r="D190" s="251"/>
+      <c r="B190" s="262"/>
+      <c r="C190" s="262"/>
+      <c r="D190" s="262"/>
       <c r="E190" s="84"/>
       <c r="F190" s="70"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="38">
         <v>146</v>
       </c>
@@ -7102,7 +7135,7 @@
       <c r="F191" s="41"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>147</v>
       </c>
@@ -7119,7 +7152,7 @@
       <c r="F192" s="41"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A193" s="38">
         <v>148</v>
       </c>
@@ -7136,7 +7169,7 @@
       <c r="F193" s="41"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <v>149</v>
       </c>
@@ -7153,7 +7186,7 @@
       <c r="F194" s="41"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A195" s="38">
         <v>150</v>
       </c>
@@ -7170,7 +7203,7 @@
       <c r="F195" s="41"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>151</v>
       </c>
@@ -7187,7 +7220,7 @@
       <c r="F196" s="41"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <v>152</v>
       </c>
@@ -7204,7 +7237,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A198" s="38">
         <v>153</v>
       </c>
@@ -7221,7 +7254,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>154</v>
       </c>
@@ -7238,7 +7271,7 @@
       <c r="F199" s="41"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A200" s="38">
         <v>155</v>
       </c>
@@ -7255,18 +7288,18 @@
       <c r="F200" s="41"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="223" t="s">
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="265" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="224"/>
-      <c r="C201" s="224"/>
-      <c r="D201" s="225"/>
+      <c r="B201" s="266"/>
+      <c r="C201" s="266"/>
+      <c r="D201" s="267"/>
       <c r="E201" s="69"/>
       <c r="F201" s="70"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>156</v>
       </c>
@@ -7281,7 +7314,7 @@
       <c r="F202" s="41"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <v>157</v>
       </c>
@@ -7298,7 +7331,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A204" s="38">
         <v>158</v>
       </c>
@@ -7315,7 +7348,7 @@
       <c r="F204" s="41"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="99" x14ac:dyDescent="0.25">
       <c r="A205" s="38">
         <v>159</v>
       </c>
@@ -7332,7 +7365,7 @@
       <c r="F205" s="41"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A206" s="38">
         <v>160</v>
       </c>
@@ -7349,18 +7382,18 @@
       <c r="F206" s="41"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="223" t="s">
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="B207" s="224"/>
-      <c r="C207" s="224"/>
-      <c r="D207" s="225"/>
+      <c r="B207" s="266"/>
+      <c r="C207" s="266"/>
+      <c r="D207" s="267"/>
       <c r="E207" s="69"/>
       <c r="F207" s="70"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="38">
         <v>161</v>
       </c>
@@ -7377,7 +7410,7 @@
       <c r="F208" s="41"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>162</v>
       </c>
@@ -7394,7 +7427,7 @@
       <c r="F209" s="41"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="38">
         <v>163</v>
       </c>
@@ -7411,18 +7444,18 @@
       <c r="F210" s="41"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="223" t="s">
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="265" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="224"/>
-      <c r="C211" s="224"/>
-      <c r="D211" s="225"/>
+      <c r="B211" s="266"/>
+      <c r="C211" s="266"/>
+      <c r="D211" s="267"/>
       <c r="E211" s="98"/>
       <c r="F211" s="70"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>164</v>
       </c>
@@ -7431,13 +7464,13 @@
         <v>212</v>
       </c>
       <c r="D212" s="36"/>
-      <c r="E212" s="263">
+      <c r="E212" s="255">
         <v>183000</v>
       </c>
       <c r="F212" s="41"/>
       <c r="G212" s="12"/>
     </row>
-    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="38">
         <v>165</v>
       </c>
@@ -7446,11 +7479,11 @@
         <v>213</v>
       </c>
       <c r="D213" s="36"/>
-      <c r="E213" s="264"/>
+      <c r="E213" s="256"/>
       <c r="F213" s="41"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>166</v>
       </c>
@@ -7459,11 +7492,11 @@
         <v>214</v>
       </c>
       <c r="D214" s="36"/>
-      <c r="E214" s="264"/>
+      <c r="E214" s="256"/>
       <c r="F214" s="41"/>
       <c r="G214" s="12"/>
     </row>
-    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="38">
         <v>167</v>
       </c>
@@ -7472,22 +7505,22 @@
         <v>215</v>
       </c>
       <c r="D215" s="36"/>
-      <c r="E215" s="265"/>
+      <c r="E215" s="257"/>
       <c r="F215" s="41"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="223" t="s">
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="265" t="s">
         <v>415</v>
       </c>
-      <c r="B216" s="224"/>
-      <c r="C216" s="224"/>
-      <c r="D216" s="225"/>
+      <c r="B216" s="266"/>
+      <c r="C216" s="266"/>
+      <c r="D216" s="267"/>
       <c r="E216" s="98"/>
       <c r="F216" s="70"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>164</v>
       </c>
@@ -7502,7 +7535,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>165</v>
       </c>
@@ -7517,7 +7550,7 @@
       <c r="F218" s="41"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>166</v>
       </c>
@@ -7532,7 +7565,7 @@
       <c r="F219" s="41"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="38">
         <v>167</v>
       </c>
@@ -7547,7 +7580,7 @@
       <c r="F220" s="41"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="99"/>
       <c r="B221" s="100"/>
       <c r="C221" s="99"/>
@@ -7555,67 +7588,67 @@
       <c r="E221" s="101"/>
       <c r="F221" s="102"/>
     </row>
-    <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="262" t="s">
+    <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="B222" s="262"/>
-      <c r="C222" s="262"/>
-      <c r="D222" s="262"/>
+      <c r="B222" s="264"/>
+      <c r="C222" s="264"/>
+      <c r="D222" s="264"/>
       <c r="E222" s="26"/>
       <c r="F222" s="103"/>
     </row>
-    <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="104"/>
-      <c r="B223" s="260" t="s">
+      <c r="B223" s="261" t="s">
         <v>267</v>
       </c>
-      <c r="C223" s="260"/>
-      <c r="D223" s="260"/>
-      <c r="E223" s="260"/>
-      <c r="F223" s="260"/>
-    </row>
-    <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C223" s="261"/>
+      <c r="D223" s="261"/>
+      <c r="E223" s="261"/>
+      <c r="F223" s="261"/>
+    </row>
+    <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="104"/>
-      <c r="B224" s="260" t="s">
+      <c r="B224" s="261" t="s">
         <v>420</v>
       </c>
-      <c r="C224" s="260"/>
-      <c r="D224" s="260"/>
-      <c r="E224" s="260"/>
-      <c r="F224" s="260"/>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C224" s="261"/>
+      <c r="D224" s="261"/>
+      <c r="E224" s="261"/>
+      <c r="F224" s="261"/>
+    </row>
+    <row r="225" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="105"/>
-      <c r="B225" s="260" t="s">
+      <c r="B225" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="C225" s="260"/>
-      <c r="D225" s="260"/>
-      <c r="E225" s="260"/>
-      <c r="F225" s="260"/>
-    </row>
-    <row r="226" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C225" s="261"/>
+      <c r="D225" s="261"/>
+      <c r="E225" s="261"/>
+      <c r="F225" s="261"/>
+    </row>
+    <row r="226" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="106"/>
-      <c r="B226" s="266" t="s">
+      <c r="B226" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="C226" s="266"/>
-      <c r="D226" s="266"/>
-      <c r="E226" s="266"/>
-      <c r="F226" s="266"/>
-    </row>
-    <row r="227" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C226" s="268"/>
+      <c r="D226" s="268"/>
+      <c r="E226" s="268"/>
+      <c r="F226" s="268"/>
+    </row>
+    <row r="227" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="103"/>
-      <c r="B227" s="260" t="s">
+      <c r="B227" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="C227" s="260"/>
-      <c r="D227" s="260"/>
-      <c r="E227" s="260"/>
-      <c r="F227" s="260"/>
-    </row>
-    <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C227" s="261"/>
+      <c r="D227" s="261"/>
+      <c r="E227" s="261"/>
+      <c r="F227" s="261"/>
+    </row>
+    <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="103"/>
       <c r="B228" s="105" t="s">
         <v>32</v>
@@ -7625,7 +7658,7 @@
       <c r="E228" s="26"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="103"/>
       <c r="B229" s="105" t="s">
         <v>33</v>
@@ -7635,7 +7668,7 @@
       <c r="E229" s="26"/>
       <c r="F229" s="23"/>
     </row>
-    <row r="230" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="109" t="s">
         <v>34</v>
       </c>
@@ -7645,7 +7678,7 @@
       <c r="E230" s="111"/>
       <c r="F230" s="108"/>
     </row>
-    <row r="231" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="103"/>
       <c r="B231" s="23" t="s">
         <v>37</v>
@@ -7655,7 +7688,7 @@
       <c r="E231" s="112"/>
       <c r="F231" s="23"/>
     </row>
-    <row r="232" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="103"/>
       <c r="B232" s="23" t="s">
         <v>324</v>
@@ -7665,7 +7698,7 @@
       <c r="E232" s="112"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="103"/>
       <c r="B233" s="23" t="s">
         <v>38</v>
@@ -7677,6 +7710,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="A201:D201"/>
     <mergeCell ref="B140:B169"/>
     <mergeCell ref="D1:F5"/>
     <mergeCell ref="A7:F7"/>
@@ -7693,59 +7779,6 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="F14:F19"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="B133:B139"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
@@ -7768,97 +7801,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:GI84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="R54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y69" sqref="Y69"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66:H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="129" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="129" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4140625" style="147" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="146" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="129" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="129" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="147" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="146" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="129" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="129" customWidth="1"/>
     <col min="7" max="7" width="15" style="147" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="129" hidden="1" customWidth="1"/>
-    <col min="9" max="17" width="16.1640625" style="148" hidden="1" customWidth="1"/>
-    <col min="18" max="22" width="16.1640625" style="15" customWidth="1"/>
-    <col min="23" max="47" width="16.1640625" style="146" customWidth="1"/>
-    <col min="48" max="48" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="16.1640625" style="146" customWidth="1"/>
-    <col min="50" max="50" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="51" max="52" width="16.1640625" style="146" customWidth="1"/>
-    <col min="53" max="53" width="21.1640625" style="146" customWidth="1"/>
-    <col min="54" max="58" width="16.1640625" style="146" customWidth="1"/>
-    <col min="59" max="60" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="16.1640625" style="146" customWidth="1"/>
-    <col min="62" max="62" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="63" max="66" width="16.1640625" style="146" customWidth="1"/>
-    <col min="67" max="67" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="68" max="72" width="16.1640625" style="146" customWidth="1"/>
-    <col min="73" max="74" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="16.1640625" style="146" customWidth="1"/>
-    <col min="76" max="79" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="80" max="84" width="16.1640625" style="146" customWidth="1"/>
-    <col min="85" max="87" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="88" max="89" width="16.1640625" style="146" customWidth="1"/>
-    <col min="90" max="94" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="16.1640625" style="146" customWidth="1"/>
-    <col min="96" max="96" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="97" max="111" width="16.1640625" style="146" customWidth="1"/>
-    <col min="112" max="113" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="16.1640625" style="146" customWidth="1"/>
-    <col min="115" max="115" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="116" max="117" width="16.1640625" style="146" customWidth="1"/>
-    <col min="118" max="118" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="119" max="122" width="18.83203125" style="146" hidden="1" customWidth="1"/>
-    <col min="123" max="123" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="124" max="124" width="18.4140625" style="146" hidden="1" customWidth="1"/>
-    <col min="125" max="128" width="19.58203125" style="146" hidden="1" customWidth="1"/>
-    <col min="129" max="148" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="149" max="156" width="16.1640625" style="146" customWidth="1"/>
-    <col min="157" max="157" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="158" max="172" width="16.1640625" style="146" customWidth="1"/>
-    <col min="173" max="174" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="175" max="175" width="16.1640625" style="146" customWidth="1"/>
-    <col min="176" max="176" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="177" max="177" width="16.1640625" style="146" customWidth="1"/>
-    <col min="178" max="186" width="16.1640625" style="146" hidden="1" customWidth="1"/>
-    <col min="187" max="187" width="16.1640625" style="146" customWidth="1"/>
-    <col min="188" max="190" width="16.1640625" style="15" hidden="1" customWidth="1"/>
-    <col min="191" max="191" width="18.1640625" style="185" bestFit="1" customWidth="1"/>
-    <col min="192" max="16384" width="9.1640625" style="15"/>
+    <col min="8" max="8" width="19.28515625" style="129" customWidth="1"/>
+    <col min="9" max="17" width="16.140625" style="148" customWidth="1"/>
+    <col min="18" max="22" width="16.140625" style="15" customWidth="1"/>
+    <col min="23" max="47" width="16.140625" style="146" customWidth="1"/>
+    <col min="48" max="48" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" style="146" customWidth="1"/>
+    <col min="50" max="50" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="51" max="52" width="16.140625" style="146" customWidth="1"/>
+    <col min="53" max="53" width="21.140625" style="146" customWidth="1"/>
+    <col min="54" max="58" width="16.140625" style="146" customWidth="1"/>
+    <col min="59" max="60" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="16.140625" style="146" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="63" max="66" width="16.140625" style="146" customWidth="1"/>
+    <col min="67" max="67" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="68" max="72" width="16.140625" style="146" customWidth="1"/>
+    <col min="73" max="74" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="16.140625" style="146" customWidth="1"/>
+    <col min="76" max="79" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="80" max="84" width="16.140625" style="146" customWidth="1"/>
+    <col min="85" max="87" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="88" max="89" width="16.140625" style="146" customWidth="1"/>
+    <col min="90" max="94" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="16.140625" style="146" customWidth="1"/>
+    <col min="96" max="96" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="97" max="111" width="16.140625" style="146" customWidth="1"/>
+    <col min="112" max="113" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="114" max="114" width="16.140625" style="146" customWidth="1"/>
+    <col min="115" max="115" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="116" max="117" width="16.140625" style="146" customWidth="1"/>
+    <col min="118" max="118" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="119" max="122" width="18.85546875" style="146" hidden="1" customWidth="1"/>
+    <col min="123" max="123" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="18.42578125" style="146" hidden="1" customWidth="1"/>
+    <col min="125" max="128" width="19.5703125" style="146" hidden="1" customWidth="1"/>
+    <col min="129" max="148" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="149" max="156" width="16.140625" style="146" customWidth="1"/>
+    <col min="157" max="157" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="158" max="172" width="16.140625" style="146" customWidth="1"/>
+    <col min="173" max="174" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="175" max="175" width="16.140625" style="146" customWidth="1"/>
+    <col min="176" max="176" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="177" max="177" width="16.140625" style="146" customWidth="1"/>
+    <col min="178" max="186" width="16.140625" style="146" hidden="1" customWidth="1"/>
+    <col min="187" max="187" width="16.140625" style="146" customWidth="1"/>
+    <col min="188" max="190" width="16.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="191" max="191" width="18.140625" style="185" bestFit="1" customWidth="1"/>
+    <col min="192" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:191" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="295" t="s">
+    <row r="1" spans="1:191" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="303" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="295" t="s">
+      <c r="B1" s="303" t="s">
         <v>421</v>
       </c>
-      <c r="C1" s="295" t="s">
+      <c r="C1" s="303" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="295" t="s">
+      <c r="D1" s="303" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="296" t="s">
+      <c r="E1" s="304" t="s">
         <v>514</v>
       </c>
-      <c r="F1" s="296" t="s">
+      <c r="F1" s="304" t="s">
         <v>424</v>
       </c>
-      <c r="G1" s="295" t="s">
+      <c r="G1" s="303" t="s">
         <v>425</v>
       </c>
-      <c r="H1" s="295" t="s">
+      <c r="H1" s="303" t="s">
         <v>426</v>
       </c>
       <c r="I1" s="125">
@@ -8134,11 +8168,11 @@
       <c r="CU1" s="126">
         <v>82</v>
       </c>
-      <c r="CV1" s="291">
+      <c r="CV1" s="299">
         <v>83</v>
       </c>
-      <c r="CW1" s="291"/>
-      <c r="CX1" s="291"/>
+      <c r="CW1" s="299"/>
+      <c r="CX1" s="299"/>
       <c r="CY1" s="126">
         <v>84</v>
       </c>
@@ -8403,19 +8437,19 @@
       <c r="GH1" s="126">
         <v>167</v>
       </c>
-      <c r="GI1" s="290" t="s">
+      <c r="GI1" s="298" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:191" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="295"/>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
+    <row r="2" spans="1:191" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="303"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
       <c r="I2" s="128" t="s">
         <v>1</v>
       </c>
@@ -8962,9 +8996,9 @@
       <c r="GH2" s="149" t="s">
         <v>419</v>
       </c>
-      <c r="GI2" s="290"/>
-    </row>
-    <row r="3" spans="1:191" s="137" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="GI2" s="298"/>
+    </row>
+    <row r="3" spans="1:191" s="137" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="182" t="s">
         <v>430</v>
       </c>
@@ -8990,10 +9024,10 @@
       <c r="M3" s="131">
         <v>27000</v>
       </c>
-      <c r="N3" s="289">
+      <c r="N3" s="297">
         <v>60000</v>
       </c>
-      <c r="O3" s="289"/>
+      <c r="O3" s="297"/>
       <c r="P3" s="132">
         <v>41000</v>
       </c>
@@ -9489,12 +9523,12 @@
       <c r="FZ3" s="136">
         <v>72000</v>
       </c>
-      <c r="GA3" s="289">
+      <c r="GA3" s="297">
         <v>183000</v>
       </c>
-      <c r="GB3" s="289"/>
-      <c r="GC3" s="289"/>
-      <c r="GD3" s="289"/>
+      <c r="GB3" s="297"/>
+      <c r="GC3" s="297"/>
+      <c r="GD3" s="297"/>
       <c r="GE3" s="131">
         <v>205000</v>
       </c>
@@ -9507,9 +9541,9 @@
       <c r="GH3" s="131">
         <v>1360000</v>
       </c>
-      <c r="GI3" s="290"/>
-    </row>
-    <row r="4" spans="1:191" s="153" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="GI3" s="298"/>
+    </row>
+    <row r="4" spans="1:191" s="153" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -9739,7 +9773,7 @@
         <v>564000</v>
       </c>
     </row>
-    <row r="5" spans="1:191" s="194" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:191" s="194" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="186">
         <v>2</v>
       </c>
@@ -9995,7 +10029,7 @@
         <v>4246000</v>
       </c>
     </row>
-    <row r="6" spans="1:191" s="194" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:191" s="194" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="186">
         <v>3</v>
       </c>
@@ -10243,7 +10277,7 @@
         <v>3389000</v>
       </c>
     </row>
-    <row r="7" spans="1:191" s="153" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:191" s="153" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="140">
         <v>4</v>
       </c>
@@ -10511,7 +10545,7 @@
         <v>2743000</v>
       </c>
     </row>
-    <row r="8" spans="1:191" s="153" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:191" s="153" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="140">
         <v>5</v>
       </c>
@@ -10745,7 +10779,7 @@
         <v>1102000</v>
       </c>
     </row>
-    <row r="9" spans="1:191" s="211" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:191" s="211" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="201">
         <v>6</v>
       </c>
@@ -10989,7 +11023,7 @@
         <v>2004000</v>
       </c>
     </row>
-    <row r="10" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="140">
         <v>7</v>
       </c>
@@ -11245,7 +11279,7 @@
         <v>3396000</v>
       </c>
     </row>
-    <row r="11" spans="1:191" s="194" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:191" s="194" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="186">
         <v>8</v>
       </c>
@@ -11505,7 +11539,7 @@
         <v>4557000</v>
       </c>
     </row>
-    <row r="12" spans="1:191" s="211" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:191" s="211" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="201">
         <v>9</v>
       </c>
@@ -11767,7 +11801,7 @@
         <v>3425000</v>
       </c>
     </row>
-    <row r="13" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="140">
         <v>10</v>
       </c>
@@ -12027,7 +12061,7 @@
         <v>3577000</v>
       </c>
     </row>
-    <row r="14" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140">
         <v>11</v>
       </c>
@@ -12279,7 +12313,7 @@
         <v>3631000</v>
       </c>
     </row>
-    <row r="15" spans="1:191" s="194" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:191" s="194" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="186">
         <v>12</v>
       </c>
@@ -12541,7 +12575,7 @@
         <v>4190000</v>
       </c>
     </row>
-    <row r="16" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="140">
         <v>13</v>
       </c>
@@ -12805,7 +12839,7 @@
         <v>3318000</v>
       </c>
     </row>
-    <row r="17" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="140">
         <v>14</v>
       </c>
@@ -13043,7 +13077,7 @@
         <v>2103000</v>
       </c>
     </row>
-    <row r="18" spans="1:191" s="194" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:191" s="194" customFormat="1" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="186">
         <v>15</v>
       </c>
@@ -13297,7 +13331,7 @@
         <v>3546000</v>
       </c>
     </row>
-    <row r="19" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="140">
         <v>16</v>
       </c>
@@ -13551,7 +13585,7 @@
         <v>3163000</v>
       </c>
     </row>
-    <row r="20" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="140">
         <v>17</v>
       </c>
@@ -13801,7 +13835,7 @@
         <v>1566000</v>
       </c>
     </row>
-    <row r="21" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="140">
         <v>18</v>
       </c>
@@ -14039,7 +14073,7 @@
         <v>2331000</v>
       </c>
     </row>
-    <row r="22" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="140">
         <v>19</v>
       </c>
@@ -14273,7 +14307,7 @@
         <v>2003000</v>
       </c>
     </row>
-    <row r="23" spans="1:191" s="194" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:191" s="194" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="186">
         <v>20</v>
       </c>
@@ -14531,7 +14565,7 @@
         <v>4077000</v>
       </c>
     </row>
-    <row r="24" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="140">
         <v>21</v>
       </c>
@@ -14779,7 +14813,7 @@
         <v>1943000</v>
       </c>
     </row>
-    <row r="25" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="140">
         <v>22</v>
       </c>
@@ -15027,7 +15061,7 @@
         <v>1982000</v>
       </c>
     </row>
-    <row r="26" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="140">
         <v>23</v>
       </c>
@@ -15267,7 +15301,7 @@
         <v>4485000</v>
       </c>
     </row>
-    <row r="27" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="140">
         <v>24</v>
       </c>
@@ -15525,7 +15559,7 @@
         <v>2717000</v>
       </c>
     </row>
-    <row r="28" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="140">
         <v>25</v>
       </c>
@@ -15789,7 +15823,7 @@
         <v>4024000</v>
       </c>
     </row>
-    <row r="29" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="140">
         <v>26</v>
       </c>
@@ -16023,7 +16057,7 @@
         <v>4025000</v>
       </c>
     </row>
-    <row r="30" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="140">
         <v>27</v>
       </c>
@@ -16267,7 +16301,7 @@
         <v>2644000</v>
       </c>
     </row>
-    <row r="31" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="140">
         <v>28</v>
       </c>
@@ -16513,7 +16547,7 @@
         <v>2236000</v>
       </c>
     </row>
-    <row r="32" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="140">
         <v>29</v>
       </c>
@@ -16743,7 +16777,7 @@
         <v>564000</v>
       </c>
     </row>
-    <row r="33" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="140">
         <v>30</v>
       </c>
@@ -16989,7 +17023,7 @@
         <v>1825000</v>
       </c>
     </row>
-    <row r="34" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="140">
         <v>31</v>
       </c>
@@ -17239,7 +17273,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="35" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="140">
         <v>32</v>
       </c>
@@ -17483,7 +17517,7 @@
         <v>1697000</v>
       </c>
     </row>
-    <row r="36" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="140">
         <v>33</v>
       </c>
@@ -17727,7 +17761,7 @@
         <v>1697000</v>
       </c>
     </row>
-    <row r="37" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="140">
         <v>34</v>
       </c>
@@ -17979,7 +18013,7 @@
         <v>2341000</v>
       </c>
     </row>
-    <row r="38" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="140">
         <v>35</v>
       </c>
@@ -18283,7 +18317,7 @@
         <v>6175000</v>
       </c>
     </row>
-    <row r="39" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="140">
         <v>36</v>
       </c>
@@ -18529,7 +18563,7 @@
         <v>3589000</v>
       </c>
     </row>
-    <row r="40" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="140">
         <v>37</v>
       </c>
@@ -18763,7 +18797,7 @@
         <v>2716000</v>
       </c>
     </row>
-    <row r="41" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="140">
         <v>38</v>
       </c>
@@ -19017,7 +19051,7 @@
         <v>2153000</v>
       </c>
     </row>
-    <row r="42" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="140">
         <v>39</v>
       </c>
@@ -19265,7 +19299,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="43" spans="1:191" s="153" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:191" s="153" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="140">
         <v>40</v>
       </c>
@@ -19523,7 +19557,7 @@
         <v>2910000</v>
       </c>
     </row>
-    <row r="44" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="140">
         <v>41</v>
       </c>
@@ -19793,7 +19827,7 @@
         <v>3595000</v>
       </c>
     </row>
-    <row r="45" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="140">
         <v>42</v>
       </c>
@@ -20045,7 +20079,7 @@
         <v>3085000</v>
       </c>
     </row>
-    <row r="46" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140">
         <v>43</v>
       </c>
@@ -20305,7 +20339,7 @@
         <v>3455000</v>
       </c>
     </row>
-    <row r="47" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="140">
         <v>44</v>
       </c>
@@ -20559,7 +20593,7 @@
         <v>3470000</v>
       </c>
     </row>
-    <row r="48" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="140">
         <v>45</v>
       </c>
@@ -20823,7 +20857,7 @@
         <v>3595000</v>
       </c>
     </row>
-    <row r="49" spans="1:191" s="194" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:191" s="194" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="186">
         <v>46</v>
       </c>
@@ -21094,7 +21128,7 @@
         <v>4997000</v>
       </c>
     </row>
-    <row r="50" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="140">
         <v>47</v>
       </c>
@@ -21351,7 +21385,7 @@
         <v>3518000</v>
       </c>
     </row>
-    <row r="51" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="140">
         <v>48</v>
       </c>
@@ -21581,7 +21615,7 @@
         <v>564000</v>
       </c>
     </row>
-    <row r="52" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="140">
         <v>49</v>
       </c>
@@ -21817,7 +21851,7 @@
         <v>2089000</v>
       </c>
     </row>
-    <row r="53" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="140">
         <v>50</v>
       </c>
@@ -22066,7 +22100,7 @@
         <v>3361000</v>
       </c>
     </row>
-    <row r="54" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="140">
         <v>51</v>
       </c>
@@ -22322,272 +22356,272 @@
         <v>3419000</v>
       </c>
     </row>
-    <row r="55" spans="1:191" s="211" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:191" s="211" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="201">
         <v>52</v>
       </c>
-      <c r="B55" s="297" t="s">
+      <c r="B55" s="223" t="s">
         <v>484</v>
       </c>
-      <c r="C55" s="298" t="s">
+      <c r="C55" s="224" t="s">
         <v>437</v>
       </c>
-      <c r="D55" s="298">
+      <c r="D55" s="224">
         <v>1988</v>
       </c>
-      <c r="E55" s="299" t="s">
+      <c r="E55" s="225" t="s">
         <v>433</v>
       </c>
       <c r="F55" s="215" t="s">
         <v>599</v>
       </c>
-      <c r="G55" s="300" t="s">
+      <c r="G55" s="226" t="s">
         <v>565</v>
       </c>
-      <c r="H55" s="301"/>
-      <c r="I55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="J55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="K55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="L55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="M55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="N55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="O55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="P55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q55" s="302" t="s">
-        <v>520</v>
-      </c>
-      <c r="R55" s="299"/>
-      <c r="S55" s="299" t="s">
-        <v>520</v>
-      </c>
-      <c r="T55" s="299"/>
-      <c r="U55" s="299"/>
-      <c r="V55" s="299" t="s">
-        <v>520</v>
-      </c>
-      <c r="W55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="X55" s="303"/>
-      <c r="Y55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="AB55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="AC55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="AD55" s="303"/>
-      <c r="AE55" s="303"/>
-      <c r="AF55" s="303"/>
-      <c r="AG55" s="303"/>
-      <c r="AH55" s="303"/>
-      <c r="AI55" s="303"/>
-      <c r="AJ55" s="303"/>
-      <c r="AK55" s="303"/>
-      <c r="AL55" s="303"/>
-      <c r="AM55" s="303"/>
-      <c r="AN55" s="303"/>
-      <c r="AO55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="AQ55" s="303"/>
-      <c r="AR55" s="303"/>
-      <c r="AS55" s="303"/>
-      <c r="AT55" s="303"/>
-      <c r="AU55" s="303"/>
-      <c r="AV55" s="303"/>
-      <c r="AW55" s="303"/>
-      <c r="AX55" s="303"/>
-      <c r="AY55" s="303"/>
-      <c r="AZ55" s="303"/>
-      <c r="BA55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="BB55" s="303"/>
-      <c r="BC55" s="303"/>
-      <c r="BD55" s="303"/>
-      <c r="BE55" s="303"/>
-      <c r="BF55" s="303"/>
-      <c r="BG55" s="303"/>
-      <c r="BH55" s="303"/>
-      <c r="BI55" s="303"/>
-      <c r="BJ55" s="303"/>
-      <c r="BK55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="BL55" s="303"/>
-      <c r="BM55" s="303"/>
-      <c r="BN55" s="303"/>
-      <c r="BO55" s="303"/>
-      <c r="BP55" s="303"/>
-      <c r="BQ55" s="303"/>
-      <c r="BR55" s="303"/>
-      <c r="BS55" s="303"/>
-      <c r="BT55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="BU55" s="303"/>
-      <c r="BV55" s="303"/>
-      <c r="BW55" s="303"/>
-      <c r="BX55" s="303"/>
-      <c r="BY55" s="303"/>
-      <c r="BZ55" s="303"/>
-      <c r="CA55" s="303"/>
-      <c r="CB55" s="303"/>
-      <c r="CC55" s="303"/>
-      <c r="CD55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="CE55" s="303"/>
-      <c r="CF55" s="303"/>
-      <c r="CG55" s="303"/>
-      <c r="CH55" s="303"/>
-      <c r="CI55" s="303"/>
-      <c r="CJ55" s="303"/>
-      <c r="CK55" s="303"/>
-      <c r="CL55" s="303"/>
-      <c r="CM55" s="303"/>
-      <c r="CN55" s="303"/>
-      <c r="CO55" s="303"/>
-      <c r="CP55" s="303"/>
-      <c r="CQ55" s="303"/>
-      <c r="CR55" s="303"/>
-      <c r="CS55" s="303"/>
-      <c r="CT55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="CU55" s="303"/>
-      <c r="CV55" s="303"/>
-      <c r="CW55" s="303"/>
-      <c r="CX55" s="303"/>
-      <c r="CY55" s="303"/>
-      <c r="CZ55" s="303"/>
-      <c r="DA55" s="303"/>
-      <c r="DB55" s="303"/>
-      <c r="DC55" s="303"/>
-      <c r="DD55" s="303"/>
-      <c r="DE55" s="303"/>
-      <c r="DF55" s="303"/>
-      <c r="DG55" s="303"/>
-      <c r="DH55" s="303"/>
-      <c r="DI55" s="303"/>
-      <c r="DJ55" s="303"/>
-      <c r="DK55" s="303"/>
-      <c r="DL55" s="303"/>
-      <c r="DM55" s="303"/>
-      <c r="DN55" s="303"/>
-      <c r="DO55" s="303"/>
-      <c r="DP55" s="303"/>
-      <c r="DQ55" s="303"/>
-      <c r="DR55" s="303"/>
-      <c r="DS55" s="303"/>
-      <c r="DT55" s="303"/>
-      <c r="DU55" s="303"/>
-      <c r="DV55" s="303"/>
-      <c r="DW55" s="303"/>
-      <c r="DX55" s="303"/>
-      <c r="DY55" s="303"/>
-      <c r="DZ55" s="303"/>
-      <c r="EA55" s="303"/>
-      <c r="EB55" s="303"/>
-      <c r="EC55" s="303"/>
-      <c r="ED55" s="303"/>
-      <c r="EE55" s="303"/>
-      <c r="EF55" s="303"/>
-      <c r="EG55" s="303"/>
-      <c r="EH55" s="303"/>
-      <c r="EI55" s="303"/>
-      <c r="EJ55" s="303"/>
-      <c r="EK55" s="303"/>
-      <c r="EL55" s="303"/>
-      <c r="EM55" s="303"/>
-      <c r="EN55" s="303"/>
-      <c r="EO55" s="303"/>
-      <c r="EP55" s="303"/>
-      <c r="EQ55" s="303"/>
-      <c r="ER55" s="303"/>
-      <c r="ES55" s="303"/>
-      <c r="ET55" s="303"/>
-      <c r="EU55" s="303"/>
-      <c r="EV55" s="303"/>
-      <c r="EW55" s="303"/>
-      <c r="EX55" s="303"/>
-      <c r="EY55" s="303"/>
-      <c r="EZ55" s="303"/>
-      <c r="FA55" s="303"/>
-      <c r="FB55" s="303"/>
-      <c r="FC55" s="303"/>
-      <c r="FD55" s="303"/>
-      <c r="FE55" s="303"/>
-      <c r="FF55" s="303"/>
-      <c r="FG55" s="303"/>
-      <c r="FH55" s="303"/>
-      <c r="FI55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="FJ55" s="303"/>
-      <c r="FK55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="FL55" s="303"/>
-      <c r="FM55" s="303"/>
-      <c r="FN55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="FO55" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="FP55" s="303"/>
-      <c r="FQ55" s="303"/>
-      <c r="FR55" s="303"/>
-      <c r="FS55" s="303"/>
-      <c r="FT55" s="303"/>
-      <c r="FU55" s="303"/>
-      <c r="FV55" s="303"/>
-      <c r="FW55" s="303"/>
-      <c r="FX55" s="303"/>
-      <c r="FY55" s="303"/>
-      <c r="FZ55" s="303"/>
-      <c r="GA55" s="303"/>
-      <c r="GB55" s="303"/>
-      <c r="GC55" s="303"/>
-      <c r="GD55" s="303"/>
-      <c r="GE55" s="303"/>
-      <c r="GF55" s="304"/>
-      <c r="GG55" s="299"/>
-      <c r="GH55" s="299"/>
+      <c r="H55" s="227"/>
+      <c r="I55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="J55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="K55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="L55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="M55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="N55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="O55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="P55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q55" s="228" t="s">
+        <v>520</v>
+      </c>
+      <c r="R55" s="225"/>
+      <c r="S55" s="225" t="s">
+        <v>520</v>
+      </c>
+      <c r="T55" s="225"/>
+      <c r="U55" s="225"/>
+      <c r="V55" s="225" t="s">
+        <v>520</v>
+      </c>
+      <c r="W55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="X55" s="229"/>
+      <c r="Y55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD55" s="229"/>
+      <c r="AE55" s="229"/>
+      <c r="AF55" s="229"/>
+      <c r="AG55" s="229"/>
+      <c r="AH55" s="229"/>
+      <c r="AI55" s="229"/>
+      <c r="AJ55" s="229"/>
+      <c r="AK55" s="229"/>
+      <c r="AL55" s="229"/>
+      <c r="AM55" s="229"/>
+      <c r="AN55" s="229"/>
+      <c r="AO55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ55" s="229"/>
+      <c r="AR55" s="229"/>
+      <c r="AS55" s="229"/>
+      <c r="AT55" s="229"/>
+      <c r="AU55" s="229"/>
+      <c r="AV55" s="229"/>
+      <c r="AW55" s="229"/>
+      <c r="AX55" s="229"/>
+      <c r="AY55" s="229"/>
+      <c r="AZ55" s="229"/>
+      <c r="BA55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="BB55" s="229"/>
+      <c r="BC55" s="229"/>
+      <c r="BD55" s="229"/>
+      <c r="BE55" s="229"/>
+      <c r="BF55" s="229"/>
+      <c r="BG55" s="229"/>
+      <c r="BH55" s="229"/>
+      <c r="BI55" s="229"/>
+      <c r="BJ55" s="229"/>
+      <c r="BK55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="BL55" s="229"/>
+      <c r="BM55" s="229"/>
+      <c r="BN55" s="229"/>
+      <c r="BO55" s="229"/>
+      <c r="BP55" s="229"/>
+      <c r="BQ55" s="229"/>
+      <c r="BR55" s="229"/>
+      <c r="BS55" s="229"/>
+      <c r="BT55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="BU55" s="229"/>
+      <c r="BV55" s="229"/>
+      <c r="BW55" s="229"/>
+      <c r="BX55" s="229"/>
+      <c r="BY55" s="229"/>
+      <c r="BZ55" s="229"/>
+      <c r="CA55" s="229"/>
+      <c r="CB55" s="229"/>
+      <c r="CC55" s="229"/>
+      <c r="CD55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="CE55" s="229"/>
+      <c r="CF55" s="229"/>
+      <c r="CG55" s="229"/>
+      <c r="CH55" s="229"/>
+      <c r="CI55" s="229"/>
+      <c r="CJ55" s="229"/>
+      <c r="CK55" s="229"/>
+      <c r="CL55" s="229"/>
+      <c r="CM55" s="229"/>
+      <c r="CN55" s="229"/>
+      <c r="CO55" s="229"/>
+      <c r="CP55" s="229"/>
+      <c r="CQ55" s="229"/>
+      <c r="CR55" s="229"/>
+      <c r="CS55" s="229"/>
+      <c r="CT55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="CU55" s="229"/>
+      <c r="CV55" s="229"/>
+      <c r="CW55" s="229"/>
+      <c r="CX55" s="229"/>
+      <c r="CY55" s="229"/>
+      <c r="CZ55" s="229"/>
+      <c r="DA55" s="229"/>
+      <c r="DB55" s="229"/>
+      <c r="DC55" s="229"/>
+      <c r="DD55" s="229"/>
+      <c r="DE55" s="229"/>
+      <c r="DF55" s="229"/>
+      <c r="DG55" s="229"/>
+      <c r="DH55" s="229"/>
+      <c r="DI55" s="229"/>
+      <c r="DJ55" s="229"/>
+      <c r="DK55" s="229"/>
+      <c r="DL55" s="229"/>
+      <c r="DM55" s="229"/>
+      <c r="DN55" s="229"/>
+      <c r="DO55" s="229"/>
+      <c r="DP55" s="229"/>
+      <c r="DQ55" s="229"/>
+      <c r="DR55" s="229"/>
+      <c r="DS55" s="229"/>
+      <c r="DT55" s="229"/>
+      <c r="DU55" s="229"/>
+      <c r="DV55" s="229"/>
+      <c r="DW55" s="229"/>
+      <c r="DX55" s="229"/>
+      <c r="DY55" s="229"/>
+      <c r="DZ55" s="229"/>
+      <c r="EA55" s="229"/>
+      <c r="EB55" s="229"/>
+      <c r="EC55" s="229"/>
+      <c r="ED55" s="229"/>
+      <c r="EE55" s="229"/>
+      <c r="EF55" s="229"/>
+      <c r="EG55" s="229"/>
+      <c r="EH55" s="229"/>
+      <c r="EI55" s="229"/>
+      <c r="EJ55" s="229"/>
+      <c r="EK55" s="229"/>
+      <c r="EL55" s="229"/>
+      <c r="EM55" s="229"/>
+      <c r="EN55" s="229"/>
+      <c r="EO55" s="229"/>
+      <c r="EP55" s="229"/>
+      <c r="EQ55" s="229"/>
+      <c r="ER55" s="229"/>
+      <c r="ES55" s="229"/>
+      <c r="ET55" s="229"/>
+      <c r="EU55" s="229"/>
+      <c r="EV55" s="229"/>
+      <c r="EW55" s="229"/>
+      <c r="EX55" s="229"/>
+      <c r="EY55" s="229"/>
+      <c r="EZ55" s="229"/>
+      <c r="FA55" s="229"/>
+      <c r="FB55" s="229"/>
+      <c r="FC55" s="229"/>
+      <c r="FD55" s="229"/>
+      <c r="FE55" s="229"/>
+      <c r="FF55" s="229"/>
+      <c r="FG55" s="229"/>
+      <c r="FH55" s="229"/>
+      <c r="FI55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="FJ55" s="229"/>
+      <c r="FK55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="FL55" s="229"/>
+      <c r="FM55" s="229"/>
+      <c r="FN55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="FO55" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="FP55" s="229"/>
+      <c r="FQ55" s="229"/>
+      <c r="FR55" s="229"/>
+      <c r="FS55" s="229"/>
+      <c r="FT55" s="229"/>
+      <c r="FU55" s="229"/>
+      <c r="FV55" s="229"/>
+      <c r="FW55" s="229"/>
+      <c r="FX55" s="229"/>
+      <c r="FY55" s="229"/>
+      <c r="FZ55" s="229"/>
+      <c r="GA55" s="229"/>
+      <c r="GB55" s="229"/>
+      <c r="GC55" s="229"/>
+      <c r="GD55" s="229"/>
+      <c r="GE55" s="229"/>
+      <c r="GF55" s="230"/>
+      <c r="GG55" s="225"/>
+      <c r="GH55" s="225"/>
       <c r="GI55" s="210">
         <v>3052000</v>
       </c>
     </row>
-    <row r="56" spans="1:191" s="211" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:191" s="211" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="201">
         <v>53</v>
       </c>
@@ -22841,7 +22875,7 @@
         <v>3946000</v>
       </c>
     </row>
-    <row r="57" spans="1:191" s="211" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:191" s="211" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="201">
         <v>54</v>
       </c>
@@ -23100,7 +23134,7 @@
         <v>3422000</v>
       </c>
     </row>
-    <row r="58" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="140">
         <v>55</v>
       </c>
@@ -23339,7 +23373,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="59" spans="1:191" s="211" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:191" s="211" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="201">
         <v>56</v>
       </c>
@@ -23585,7 +23619,7 @@
         <v>2014000</v>
       </c>
     </row>
-    <row r="60" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="140">
         <v>57</v>
       </c>
@@ -23847,7 +23881,7 @@
         <v>1993000</v>
       </c>
     </row>
-    <row r="61" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="140">
         <v>58</v>
       </c>
@@ -24097,7 +24131,7 @@
         <v>3127000</v>
       </c>
     </row>
-    <row r="62" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="140">
         <v>59</v>
       </c>
@@ -24343,7 +24377,7 @@
         <v>3654000</v>
       </c>
     </row>
-    <row r="63" spans="1:191" s="194" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:191" s="194" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="186">
         <v>60</v>
       </c>
@@ -24605,7 +24639,7 @@
         <v>3808000</v>
       </c>
     </row>
-    <row r="64" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="140">
         <v>61</v>
       </c>
@@ -24871,7 +24905,7 @@
         <v>3339000</v>
       </c>
     </row>
-    <row r="65" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="140">
         <v>62</v>
       </c>
@@ -25139,7 +25173,7 @@
         <v>4012000</v>
       </c>
     </row>
-    <row r="66" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="140">
         <v>63</v>
       </c>
@@ -25381,7 +25415,7 @@
         <v>5185000</v>
       </c>
     </row>
-    <row r="67" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="140">
         <v>64</v>
       </c>
@@ -25663,7 +25697,7 @@
         <v>3528000</v>
       </c>
     </row>
-    <row r="68" spans="1:191" s="211" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:191" s="211" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="201">
         <v>65</v>
       </c>
@@ -25913,7 +25947,7 @@
         <v>2088000</v>
       </c>
     </row>
-    <row r="69" spans="1:191" s="211" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:191" s="211" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="201">
         <v>66</v>
       </c>
@@ -26177,7 +26211,7 @@
         <v>3771000</v>
       </c>
     </row>
-    <row r="70" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="140">
         <v>67</v>
       </c>
@@ -26441,7 +26475,7 @@
         <v>3583000</v>
       </c>
     </row>
-    <row r="71" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="140">
         <v>68</v>
       </c>
@@ -26677,7 +26711,7 @@
         <v>905000</v>
       </c>
     </row>
-    <row r="72" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="140">
         <v>69</v>
       </c>
@@ -26917,7 +26951,7 @@
         <v>1976000</v>
       </c>
     </row>
-    <row r="73" spans="1:191" s="211" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:191" s="211" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="201">
         <v>70</v>
       </c>
@@ -27175,7 +27209,7 @@
         <v>2486000</v>
       </c>
     </row>
-    <row r="74" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="140">
         <v>71</v>
       </c>
@@ -27383,7 +27417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="140">
         <v>72</v>
       </c>
@@ -27591,7 +27625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="140">
         <v>73</v>
       </c>
@@ -27799,7 +27833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="140">
         <v>74</v>
       </c>
@@ -28007,7 +28041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="140">
         <v>75</v>
       </c>
@@ -28215,7 +28249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="140">
         <v>76</v>
       </c>
@@ -28423,7 +28457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="140">
         <v>77</v>
       </c>
@@ -28631,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="140">
         <v>78</v>
       </c>
@@ -28839,7 +28873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="140">
         <v>79</v>
       </c>
@@ -29047,7 +29081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:191" s="153" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:191" s="153" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="140">
         <v>80</v>
       </c>
@@ -29255,17 +29289,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:191" s="138" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="292" t="s">
+    <row r="84" spans="1:191" s="138" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="300" t="s">
         <v>414</v>
       </c>
-      <c r="B84" s="293"/>
-      <c r="C84" s="293"/>
-      <c r="D84" s="293"/>
-      <c r="E84" s="293"/>
-      <c r="F84" s="293"/>
-      <c r="G84" s="293"/>
-      <c r="H84" s="294"/>
+      <c r="B84" s="301"/>
+      <c r="C84" s="301"/>
+      <c r="D84" s="301"/>
+      <c r="E84" s="301"/>
+      <c r="F84" s="301"/>
+      <c r="G84" s="301"/>
+      <c r="H84" s="302"/>
       <c r="I84" s="145">
         <f>COUNTA(I4:I83)</f>
         <v>70</v>
@@ -30000,15 +30034,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:GI84" xr:uid="{94E412AE-3F50-4CBA-A6FD-C58918647BA5}">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
+  <autoFilter ref="A3:GI84" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="157">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="182" showButton="0"/>
     <filterColumn colId="183" showButton="0"/>
     <filterColumn colId="184" showButton="0"/>
@@ -30056,12 +30088,253 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="310" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="310" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="310" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="310" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="310" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="310" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="310" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="310" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="308" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="308" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" s="308" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" s="308" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="309" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="309" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" s="308" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" s="308" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="142">
+        <v>3</v>
+      </c>
+      <c r="B3" s="306" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" s="142">
+        <v>1979</v>
+      </c>
+      <c r="E3" s="305" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="143" t="s">
+        <v>616</v>
+      </c>
+      <c r="G3" s="142" t="s">
+        <v>630</v>
+      </c>
+      <c r="H3" s="311" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="142">
+        <v>8</v>
+      </c>
+      <c r="B4" s="306" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="142">
+        <v>1985</v>
+      </c>
+      <c r="E4" s="305" t="s">
+        <v>433</v>
+      </c>
+      <c r="F4" s="143" t="s">
+        <v>607</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>610</v>
+      </c>
+      <c r="H4" s="311" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="142">
+        <v>12</v>
+      </c>
+      <c r="B5" s="306" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="142">
+        <v>1989</v>
+      </c>
+      <c r="E5" s="305" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="143" t="s">
+        <v>553</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>556</v>
+      </c>
+      <c r="H5" s="311" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="142">
+        <v>20</v>
+      </c>
+      <c r="B6" s="306" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" s="142">
+        <v>1982</v>
+      </c>
+      <c r="E6" s="305" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" s="155" t="s">
+        <v>552</v>
+      </c>
+      <c r="G6" s="157" t="s">
+        <v>561</v>
+      </c>
+      <c r="H6" s="311" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="142">
+        <v>46</v>
+      </c>
+      <c r="B7" s="306" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="142">
+        <v>1983</v>
+      </c>
+      <c r="E7" s="305" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="155" t="s">
+        <v>599</v>
+      </c>
+      <c r="G7" s="157" t="s">
+        <v>601</v>
+      </c>
+      <c r="H7" s="311" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="142">
+        <v>60</v>
+      </c>
+      <c r="B8" s="306" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" s="307">
+        <v>35738</v>
+      </c>
+      <c r="E8" s="305" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="155" t="s">
+        <v>585</v>
+      </c>
+      <c r="G8" s="164" t="s">
+        <v>595</v>
+      </c>
+      <c r="H8" s="311" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="142">
+        <v>63</v>
+      </c>
+      <c r="B9" s="306" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="142" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" s="307">
+        <v>31073</v>
+      </c>
+      <c r="E9" s="305" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="155" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="157" t="s">
+        <v>577</v>
+      </c>
+      <c r="H9" s="155" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>